--- a/data/pca/factorExposure/factorExposure_2012-04-13.xlsx
+++ b/data/pca/factorExposure/factorExposure_2012-04-13.xlsx
@@ -14,12 +14,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
   <si>
     <t>factor2</t>
+  </si>
+  <si>
+    <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -686,34 +701,64 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>-0.01665852389154028</v>
+        <v>0.01692967285023469</v>
       </c>
       <c r="C2">
-        <v>0.03519360438373415</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>0.02903817045234708</v>
+      </c>
+      <c r="D2">
+        <v>0.002987530157492459</v>
+      </c>
+      <c r="E2">
+        <v>0.01012474004495749</v>
+      </c>
+      <c r="F2">
+        <v>-0.007517628927178751</v>
+      </c>
+      <c r="G2">
+        <v>-0.003098483715904207</v>
+      </c>
+      <c r="H2">
+        <v>0.05254247366957012</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -721,21 +766,51 @@
       <c r="C3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>-0.07575848458236532</v>
+        <v>0.08829721878395154</v>
       </c>
       <c r="C4">
-        <v>0.05546947156994359</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>0.0390013196754288</v>
+      </c>
+      <c r="D4">
+        <v>0.06805186299320114</v>
+      </c>
+      <c r="E4">
+        <v>0.01447639144152568</v>
+      </c>
+      <c r="F4">
+        <v>-0.0276256950186839</v>
+      </c>
+      <c r="G4">
+        <v>-0.01076442887607223</v>
+      </c>
+      <c r="H4">
+        <v>-0.05127424717752142</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -743,131 +818,311 @@
       <c r="C5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>-0.1063792128974131</v>
+        <v>0.1189896080682519</v>
       </c>
       <c r="C6">
-        <v>0.05465559776316729</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>0.03244048190288689</v>
+      </c>
+      <c r="D6">
+        <v>0.01070009669614743</v>
+      </c>
+      <c r="E6">
+        <v>-0.007939367779894669</v>
+      </c>
+      <c r="F6">
+        <v>-0.06126082007680173</v>
+      </c>
+      <c r="G6">
+        <v>-0.02029348361567274</v>
+      </c>
+      <c r="H6">
+        <v>0.08131887364058731</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>-0.05018524110705791</v>
+        <v>0.06414103760169616</v>
       </c>
       <c r="C7">
-        <v>0.02851207111445428</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>0.02000883664759074</v>
+      </c>
+      <c r="D7">
+        <v>0.04514912551373553</v>
+      </c>
+      <c r="E7">
+        <v>0.03557560177757324</v>
+      </c>
+      <c r="F7">
+        <v>-0.03808136196270273</v>
+      </c>
+      <c r="G7">
+        <v>0.040397976631886</v>
+      </c>
+      <c r="H7">
+        <v>-0.02340772673382122</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>-0.03577560263304742</v>
+        <v>0.04021542533839891</v>
       </c>
       <c r="C8">
-        <v>0.0115980207820345</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>0.007758263743681146</v>
+      </c>
+      <c r="D8">
+        <v>0.02887885597316264</v>
+      </c>
+      <c r="E8">
+        <v>0.0290150186655713</v>
+      </c>
+      <c r="F8">
+        <v>-0.04485729811672177</v>
+      </c>
+      <c r="G8">
+        <v>-0.04473729783673512</v>
+      </c>
+      <c r="H8">
+        <v>-0.01503951156329692</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>-0.06852757025649286</v>
+        <v>0.07905981996326041</v>
       </c>
       <c r="C9">
-        <v>0.04600236403791431</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <v>0.02987689892042899</v>
+      </c>
+      <c r="D9">
+        <v>0.06339030241877631</v>
+      </c>
+      <c r="E9">
+        <v>0.03689381352808982</v>
+      </c>
+      <c r="F9">
+        <v>-0.03279437432298759</v>
+      </c>
+      <c r="G9">
+        <v>-0.01227493291473381</v>
+      </c>
+      <c r="H9">
+        <v>-0.0575382085832469</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>-0.02960303123594218</v>
+        <v>0.03574230208521766</v>
       </c>
       <c r="C10">
-        <v>0.03372598935891211</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+        <v>0.04154333245794119</v>
+      </c>
+      <c r="D10">
+        <v>-0.1740148484812462</v>
+      </c>
+      <c r="E10">
+        <v>0.05025541207008422</v>
+      </c>
+      <c r="F10">
+        <v>-0.04432019766044454</v>
+      </c>
+      <c r="G10">
+        <v>0.04099091939153301</v>
+      </c>
+      <c r="H10">
+        <v>0.03686649100861913</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>-0.07102447312467675</v>
+        <v>0.07655428265024666</v>
       </c>
       <c r="C11">
-        <v>0.04706449748533967</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+        <v>0.02674535350382715</v>
+      </c>
+      <c r="D11">
+        <v>0.06220164991362417</v>
+      </c>
+      <c r="E11">
+        <v>-0.003497853967263148</v>
+      </c>
+      <c r="F11">
+        <v>-0.02713820346961316</v>
+      </c>
+      <c r="G11">
+        <v>-0.002528668793061693</v>
+      </c>
+      <c r="H11">
+        <v>-0.1012682590095191</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>-0.05742137298752194</v>
+        <v>0.06608624745371233</v>
       </c>
       <c r="C12">
-        <v>0.05094423798994319</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+        <v>0.03512938857672609</v>
+      </c>
+      <c r="D12">
+        <v>0.04933966925752802</v>
+      </c>
+      <c r="E12">
+        <v>0.01366078177455969</v>
+      </c>
+      <c r="F12">
+        <v>-0.0161520533541423</v>
+      </c>
+      <c r="G12">
+        <v>-0.003877537726759169</v>
+      </c>
+      <c r="H12">
+        <v>-0.05762424966937642</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>-0.05990019138065112</v>
+        <v>0.0654171872978252</v>
       </c>
       <c r="C13">
-        <v>0.04146863434039304</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+        <v>0.02564311462104245</v>
+      </c>
+      <c r="D13">
+        <v>0.04233250100010531</v>
+      </c>
+      <c r="E13">
+        <v>0.01647590862725692</v>
+      </c>
+      <c r="F13">
+        <v>-0.00544965347496606</v>
+      </c>
+      <c r="G13">
+        <v>-0.000815639538772669</v>
+      </c>
+      <c r="H13">
+        <v>-0.05479611248166777</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>-0.03273065412151963</v>
+        <v>0.04084091824055287</v>
       </c>
       <c r="C14">
-        <v>0.03129542691212714</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+        <v>0.02725414689282023</v>
+      </c>
+      <c r="D14">
+        <v>0.004133820893058143</v>
+      </c>
+      <c r="E14">
+        <v>0.03089875968052185</v>
+      </c>
+      <c r="F14">
+        <v>-0.0152953745252868</v>
+      </c>
+      <c r="G14">
+        <v>-0.01840692264243545</v>
+      </c>
+      <c r="H14">
+        <v>-0.05617463696204412</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B15">
-        <v>-0.03969873552808448</v>
+        <v>0.03966420981855625</v>
       </c>
       <c r="C15">
-        <v>0.01168982641052038</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+        <v>0.003343634277965662</v>
+      </c>
+      <c r="D15">
+        <v>0.005059622918705259</v>
+      </c>
+      <c r="E15">
+        <v>0.04313837160717201</v>
+      </c>
+      <c r="F15">
+        <v>0.004072795281941679</v>
+      </c>
+      <c r="G15">
+        <v>-0.02733595376724049</v>
+      </c>
+      <c r="H15">
+        <v>-0.040194083501411</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>-0.06058025517694645</v>
+        <v>0.06960596566947845</v>
       </c>
       <c r="C16">
-        <v>0.04275344233269694</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+        <v>0.02754906988761712</v>
+      </c>
+      <c r="D16">
+        <v>0.06219330923372075</v>
+      </c>
+      <c r="E16">
+        <v>0.006609420575466772</v>
+      </c>
+      <c r="F16">
+        <v>-0.02383221362856016</v>
+      </c>
+      <c r="G16">
+        <v>0.002144180525846429</v>
+      </c>
+      <c r="H16">
+        <v>-0.05932912982592399</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -875,10 +1130,25 @@
       <c r="C17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -886,10 +1156,25 @@
       <c r="C18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:3">
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -897,87 +1182,207 @@
       <c r="C19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>-0.06438330788249912</v>
+        <v>0.06341327240632821</v>
       </c>
       <c r="C20">
-        <v>0.03310503805476347</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
+        <v>0.01400572011398459</v>
+      </c>
+      <c r="D20">
+        <v>0.03987491782142445</v>
+      </c>
+      <c r="E20">
+        <v>0.0327563064647536</v>
+      </c>
+      <c r="F20">
+        <v>-0.0193853479073629</v>
+      </c>
+      <c r="G20">
+        <v>-0.01379802534111739</v>
+      </c>
+      <c r="H20">
+        <v>-0.05511322629117345</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>-0.02329436246442873</v>
+        <v>0.02442824055504507</v>
       </c>
       <c r="C21">
-        <v>-0.003500489901470511</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>-0.01061882474216178</v>
+      </c>
+      <c r="D21">
+        <v>0.03185106354012606</v>
+      </c>
+      <c r="E21">
+        <v>0.03931045704419456</v>
+      </c>
+      <c r="F21">
+        <v>0.007566688117133903</v>
+      </c>
+      <c r="G21">
+        <v>-0.007435650703390376</v>
+      </c>
+      <c r="H21">
+        <v>0.04399071291732395</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B22">
-        <v>-0.07107045879194873</v>
+        <v>0.06798953428045153</v>
       </c>
       <c r="C22">
-        <v>0.06074311857524973</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
+        <v>0.04001113451009781</v>
+      </c>
+      <c r="D22">
+        <v>0.07565781108679111</v>
+      </c>
+      <c r="E22">
+        <v>0.5749672375231136</v>
+      </c>
+      <c r="F22">
+        <v>0.2107414010542662</v>
+      </c>
+      <c r="G22">
+        <v>0.05482457475149417</v>
+      </c>
+      <c r="H22">
+        <v>0.1940179284436605</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B23">
-        <v>-0.0720565151012178</v>
+        <v>0.06859116941418669</v>
       </c>
       <c r="C23">
-        <v>0.05968070207638728</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
+        <v>0.03872117568982938</v>
+      </c>
+      <c r="D23">
+        <v>0.07663695623350822</v>
+      </c>
+      <c r="E23">
+        <v>0.5745016432413711</v>
+      </c>
+      <c r="F23">
+        <v>0.2097249575289936</v>
+      </c>
+      <c r="G23">
+        <v>0.05299473005811133</v>
+      </c>
+      <c r="H23">
+        <v>0.1896249291135816</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>-0.06993103450771875</v>
+        <v>0.07937817703984951</v>
       </c>
       <c r="C24">
-        <v>0.05087243981364407</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
+        <v>0.03310050193709983</v>
+      </c>
+      <c r="D24">
+        <v>0.05901126714338614</v>
+      </c>
+      <c r="E24">
+        <v>0.01740814718038992</v>
+      </c>
+      <c r="F24">
+        <v>-0.03330117110810003</v>
+      </c>
+      <c r="G24">
+        <v>-0.009605272432486768</v>
+      </c>
+      <c r="H24">
+        <v>-0.06789768513381424</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>-0.07086062077072192</v>
+        <v>0.07724352892864926</v>
       </c>
       <c r="C25">
-        <v>0.0569948504678886</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
+        <v>0.03763942476537604</v>
+      </c>
+      <c r="D25">
+        <v>0.05217459769836433</v>
+      </c>
+      <c r="E25">
+        <v>0.01945983122215304</v>
+      </c>
+      <c r="F25">
+        <v>-0.02756454381646829</v>
+      </c>
+      <c r="G25">
+        <v>-0.021338430836272</v>
+      </c>
+      <c r="H25">
+        <v>-0.07194864618976461</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>-0.04581025781459416</v>
+        <v>0.04758150673569647</v>
       </c>
       <c r="C26">
-        <v>0.01053221599076271</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
+        <v>0.001522381426142653</v>
+      </c>
+      <c r="D26">
+        <v>0.01985117501306424</v>
+      </c>
+      <c r="E26">
+        <v>0.05264849922122495</v>
+      </c>
+      <c r="F26">
+        <v>-0.02083713077235202</v>
+      </c>
+      <c r="G26">
+        <v>0.0005263910557449361</v>
+      </c>
+      <c r="H26">
+        <v>-0.06304307601058443</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -985,109 +1390,259 @@
       <c r="C27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:3">
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>-0.05597051011515788</v>
+        <v>0.06644427683431785</v>
       </c>
       <c r="C28">
-        <v>0.07250702776486989</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
+        <v>0.08169048869924207</v>
+      </c>
+      <c r="D28">
+        <v>-0.3093632219742409</v>
+      </c>
+      <c r="E28">
+        <v>0.02612624857476221</v>
+      </c>
+      <c r="F28">
+        <v>-0.05804902583722825</v>
+      </c>
+      <c r="G28">
+        <v>-0.02117773489265549</v>
+      </c>
+      <c r="H28">
+        <v>0.03975275533741855</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>-0.04084602951472771</v>
+        <v>0.04844891255471538</v>
       </c>
       <c r="C29">
-        <v>0.03171326004596998</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
+        <v>0.02497521469049482</v>
+      </c>
+      <c r="D29">
+        <v>0.004978933605798478</v>
+      </c>
+      <c r="E29">
+        <v>0.05627875085050726</v>
+      </c>
+      <c r="F29">
+        <v>-0.001976659858291226</v>
+      </c>
+      <c r="G29">
+        <v>-0.002495061863313112</v>
+      </c>
+      <c r="H29">
+        <v>-0.08338463796581563</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>-0.126258576636283</v>
+        <v>0.1330074561039664</v>
       </c>
       <c r="C30">
-        <v>0.09510266853747888</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
+        <v>0.06380336398436759</v>
+      </c>
+      <c r="D30">
+        <v>0.07326190397589988</v>
+      </c>
+      <c r="E30">
+        <v>0.08537195672276661</v>
+      </c>
+      <c r="F30">
+        <v>0.008947210998160364</v>
+      </c>
+      <c r="G30">
+        <v>-0.0658593641635704</v>
+      </c>
+      <c r="H30">
+        <v>0.01867327424261589</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>-0.04233064929024061</v>
+        <v>0.04801908585510931</v>
       </c>
       <c r="C31">
-        <v>0.0202394592529988</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
+        <v>0.01176360312702381</v>
+      </c>
+      <c r="D31">
+        <v>0.02412878456030521</v>
+      </c>
+      <c r="E31">
+        <v>0.02935695605831921</v>
+      </c>
+      <c r="F31">
+        <v>-0.00953640275611857</v>
+      </c>
+      <c r="G31">
+        <v>0.01810285651334693</v>
+      </c>
+      <c r="H31">
+        <v>-0.06792957406070789</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>-0.03732284633435001</v>
+        <v>0.03826963474595758</v>
       </c>
       <c r="C32">
-        <v>0.02337457688092194</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
+        <v>0.01668714773554063</v>
+      </c>
+      <c r="D32">
+        <v>0.007585253486339241</v>
+      </c>
+      <c r="E32">
+        <v>0.07055310848335153</v>
+      </c>
+      <c r="F32">
+        <v>0.01416012314803039</v>
+      </c>
+      <c r="G32">
+        <v>-0.03776379867264125</v>
+      </c>
+      <c r="H32">
+        <v>-0.05755911310741992</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>-0.08126256691115114</v>
+        <v>0.09455264278262307</v>
       </c>
       <c r="C33">
-        <v>0.04434077806190088</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
+        <v>0.02651216402346261</v>
+      </c>
+      <c r="D33">
+        <v>0.05240346525923449</v>
+      </c>
+      <c r="E33">
+        <v>0.01596680775392175</v>
+      </c>
+      <c r="F33">
+        <v>9.445427875386461e-05</v>
+      </c>
+      <c r="G33">
+        <v>0.005775949497923652</v>
+      </c>
+      <c r="H33">
+        <v>-0.07734625680592162</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>-0.05560357972157766</v>
+        <v>0.06129090256270694</v>
       </c>
       <c r="C34">
-        <v>0.02855402104974953</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
+        <v>0.01327779591050788</v>
+      </c>
+      <c r="D34">
+        <v>0.05370629755072133</v>
+      </c>
+      <c r="E34">
+        <v>0.01054736321218913</v>
+      </c>
+      <c r="F34">
+        <v>-0.01429383948345133</v>
+      </c>
+      <c r="G34">
+        <v>-0.008775894296000283</v>
+      </c>
+      <c r="H34">
+        <v>-0.05830503936704391</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B35">
-        <v>-0.03759176183068442</v>
+        <v>0.04019368006607853</v>
       </c>
       <c r="C35">
-        <v>0.009706681406747159</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
+        <v>0.0022762836658477</v>
+      </c>
+      <c r="D35">
+        <v>0.005456061682384356</v>
+      </c>
+      <c r="E35">
+        <v>0.02066588806902808</v>
+      </c>
+      <c r="F35">
+        <v>0.01409158822408238</v>
+      </c>
+      <c r="G35">
+        <v>0.008724239993685996</v>
+      </c>
+      <c r="H35">
+        <v>-0.02870801858923911</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>-0.02060909803502912</v>
+        <v>0.0269056787031491</v>
       </c>
       <c r="C36">
-        <v>0.01749369520489721</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
+        <v>0.01354291813918915</v>
+      </c>
+      <c r="D36">
+        <v>0.01385781484305723</v>
+      </c>
+      <c r="E36">
+        <v>0.04586307302275058</v>
+      </c>
+      <c r="F36">
+        <v>-0.01430081449039072</v>
+      </c>
+      <c r="G36">
+        <v>0.005559197024767862</v>
+      </c>
+      <c r="H36">
+        <v>-0.05069790129333329</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1095,54 +1650,129 @@
       <c r="C37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:3">
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>-0.040922658164799</v>
+        <v>0.04418402296105691</v>
       </c>
       <c r="C38">
-        <v>0.004018288645205444</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
+        <v>-0.002814754162077683</v>
+      </c>
+      <c r="D38">
+        <v>0.01706761010573833</v>
+      </c>
+      <c r="E38">
+        <v>0.05870054932222629</v>
+      </c>
+      <c r="F38">
+        <v>0.01860315597628038</v>
+      </c>
+      <c r="G38">
+        <v>-0.01601875637963073</v>
+      </c>
+      <c r="H38">
+        <v>-0.02449533394991786</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>-0.09452282151322694</v>
+        <v>0.1047986358436913</v>
       </c>
       <c r="C39">
-        <v>0.07429361729987434</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
+        <v>0.05007654447078138</v>
+      </c>
+      <c r="D39">
+        <v>0.06382814863245112</v>
+      </c>
+      <c r="E39">
+        <v>-0.003479469177075841</v>
+      </c>
+      <c r="F39">
+        <v>-0.009175480770983414</v>
+      </c>
+      <c r="G39">
+        <v>-0.04118386433514458</v>
+      </c>
+      <c r="H39">
+        <v>-0.07163139516542845</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>-0.07341615932391675</v>
+        <v>0.07159696307028164</v>
       </c>
       <c r="C40">
-        <v>0.04071472578676918</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
+        <v>0.01946733454630256</v>
+      </c>
+      <c r="D40">
+        <v>0.01227572328332066</v>
+      </c>
+      <c r="E40">
+        <v>0.01901115835632375</v>
+      </c>
+      <c r="F40">
+        <v>0.05722812737027845</v>
+      </c>
+      <c r="G40">
+        <v>-0.04796341600802406</v>
+      </c>
+      <c r="H40">
+        <v>0.0786279610698684</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>-0.04053447633234297</v>
+        <v>0.04326380065270091</v>
       </c>
       <c r="C41">
-        <v>0.006624707028977887</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
+        <v>-0.001366080168453805</v>
+      </c>
+      <c r="D41">
+        <v>0.03455455880333461</v>
+      </c>
+      <c r="E41">
+        <v>0.003706446457152029</v>
+      </c>
+      <c r="F41">
+        <v>0.01476453824101444</v>
+      </c>
+      <c r="G41">
+        <v>-0.0157037427200242</v>
+      </c>
+      <c r="H41">
+        <v>-0.03362937010536527</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1150,32 +1780,77 @@
       <c r="C42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:3">
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>-0.04622346393170251</v>
+        <v>0.05689840862751052</v>
       </c>
       <c r="C43">
-        <v>0.02556729365111921</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
+        <v>0.01724585734363684</v>
+      </c>
+      <c r="D43">
+        <v>0.02521043264741542</v>
+      </c>
+      <c r="E43">
+        <v>0.01942957455412572</v>
+      </c>
+      <c r="F43">
+        <v>-0.01212738583047539</v>
+      </c>
+      <c r="G43">
+        <v>0.009268201277471891</v>
+      </c>
+      <c r="H43">
+        <v>-0.04931602207327087</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>-0.09514973385834266</v>
+        <v>0.09361421530367409</v>
       </c>
       <c r="C44">
-        <v>0.09566060121102497</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
+        <v>0.06453850906333887</v>
+      </c>
+      <c r="D44">
+        <v>0.06529329768443869</v>
+      </c>
+      <c r="E44">
+        <v>0.09417472000001573</v>
+      </c>
+      <c r="F44">
+        <v>-0.03946891190410048</v>
+      </c>
+      <c r="G44">
+        <v>-0.02930753785034645</v>
+      </c>
+      <c r="H44">
+        <v>-0.01665837278992473</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1183,76 +1858,181 @@
       <c r="C45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:3">
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>-0.024953429888839</v>
+        <v>0.03193428592064051</v>
       </c>
       <c r="C46">
-        <v>0.01347880299178227</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
+        <v>0.009587143189677206</v>
+      </c>
+      <c r="D46">
+        <v>0.03226513111292435</v>
+      </c>
+      <c r="E46">
+        <v>0.02822609752176964</v>
+      </c>
+      <c r="F46">
+        <v>-0.01468686186487202</v>
+      </c>
+      <c r="G46">
+        <v>-0.007564854213101817</v>
+      </c>
+      <c r="H46">
+        <v>-0.03366487964745121</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>-0.02797765280050772</v>
+        <v>0.03626661349961427</v>
       </c>
       <c r="C47">
-        <v>0.02576796965535112</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
+        <v>0.02096737523248848</v>
+      </c>
+      <c r="D47">
+        <v>0.01591957984001893</v>
+      </c>
+      <c r="E47">
+        <v>0.05483843117824114</v>
+      </c>
+      <c r="F47">
+        <v>-0.005695637043606884</v>
+      </c>
+      <c r="G47">
+        <v>0.04029112768482351</v>
+      </c>
+      <c r="H47">
+        <v>-0.0218548657829171</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>-0.03105042779944285</v>
+        <v>0.03614838020031812</v>
       </c>
       <c r="C48">
-        <v>0.01591801879795431</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
+        <v>0.009104490688539506</v>
+      </c>
+      <c r="D48">
+        <v>0.02000318244343434</v>
+      </c>
+      <c r="E48">
+        <v>0.04346791670772786</v>
+      </c>
+      <c r="F48">
+        <v>-0.001060239716765741</v>
+      </c>
+      <c r="G48">
+        <v>-0.01428515268036861</v>
+      </c>
+      <c r="H48">
+        <v>-0.04847387946984723</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B49">
-        <v>-0.1633793068661284</v>
+        <v>0.19127716957675</v>
       </c>
       <c r="C49">
-        <v>0.06433623328985684</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
+        <v>0.03506231691711717</v>
+      </c>
+      <c r="D49">
+        <v>0.02757584819144993</v>
+      </c>
+      <c r="E49">
+        <v>-0.1515039608792202</v>
+      </c>
+      <c r="F49">
+        <v>-0.07137431818029036</v>
+      </c>
+      <c r="G49">
+        <v>0.07495910614970656</v>
+      </c>
+      <c r="H49">
+        <v>0.229601656542523</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>-0.03720186542389783</v>
+        <v>0.04419293371876309</v>
       </c>
       <c r="C50">
-        <v>0.02289615014600285</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
+        <v>0.01587774743138918</v>
+      </c>
+      <c r="D50">
+        <v>0.03202745479355844</v>
+      </c>
+      <c r="E50">
+        <v>0.05520527231853713</v>
+      </c>
+      <c r="F50">
+        <v>-0.009724813460729042</v>
+      </c>
+      <c r="G50">
+        <v>0.0141844240298197</v>
+      </c>
+      <c r="H50">
+        <v>-0.06293079774993438</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>-0.02551498257750852</v>
+        <v>0.02926312436547712</v>
       </c>
       <c r="C51">
-        <v>0.01033516325820761</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
+        <v>0.006087025466636593</v>
+      </c>
+      <c r="D51">
+        <v>0.02177286081632663</v>
+      </c>
+      <c r="E51">
+        <v>0.01549853735542536</v>
+      </c>
+      <c r="F51">
+        <v>-0.01516118517634843</v>
+      </c>
+      <c r="G51">
+        <v>-0.001826593967161081</v>
+      </c>
+      <c r="H51">
+        <v>0.006644187748540312</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1260,54 +2040,129 @@
       <c r="C52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:3">
+      <c r="D52">
+        <v>0</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>-0.1517772330585059</v>
+        <v>0.1624236954911265</v>
       </c>
       <c r="C53">
-        <v>0.08367241845082292</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
+        <v>0.05374430113642573</v>
+      </c>
+      <c r="D53">
+        <v>0.01842411916003955</v>
+      </c>
+      <c r="E53">
+        <v>-0.0225041525434267</v>
+      </c>
+      <c r="F53">
+        <v>-0.01423642418998697</v>
+      </c>
+      <c r="G53">
+        <v>-0.002521782417483404</v>
+      </c>
+      <c r="H53">
+        <v>-0.1472685651881268</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>-0.05594301690978295</v>
+        <v>0.057475258072955</v>
       </c>
       <c r="C54">
-        <v>0.02523293252528689</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
+        <v>0.01237536357616209</v>
+      </c>
+      <c r="D54">
+        <v>0.01820520113324031</v>
+      </c>
+      <c r="E54">
+        <v>0.05129099489072014</v>
+      </c>
+      <c r="F54">
+        <v>-0.006838521545064365</v>
+      </c>
+      <c r="G54">
+        <v>-0.01700059898096009</v>
+      </c>
+      <c r="H54">
+        <v>-0.05691354248748978</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>-0.0992138535287828</v>
+        <v>0.1034471917698977</v>
       </c>
       <c r="C55">
-        <v>0.05806407726099012</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
+        <v>0.03680074416582953</v>
+      </c>
+      <c r="D55">
+        <v>0.02489881011002197</v>
+      </c>
+      <c r="E55">
+        <v>0.01809567827773949</v>
+      </c>
+      <c r="F55">
+        <v>-0.01348446062836161</v>
+      </c>
+      <c r="G55">
+        <v>-0.01245898991887196</v>
+      </c>
+      <c r="H55">
+        <v>-0.1343031077191593</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>-0.1469765105691788</v>
+        <v>0.1601806786352708</v>
       </c>
       <c r="C56">
-        <v>0.09431269763767833</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
+        <v>0.06430150505863845</v>
+      </c>
+      <c r="D56">
+        <v>0.01908009857476058</v>
+      </c>
+      <c r="E56">
+        <v>-0.02483555505216548</v>
+      </c>
+      <c r="F56">
+        <v>-0.03221936689595507</v>
+      </c>
+      <c r="G56">
+        <v>0.001941438689990222</v>
+      </c>
+      <c r="H56">
+        <v>-0.1538444035897385</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1315,428 +2170,1013 @@
       <c r="C57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:3">
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>-0.1193042637818637</v>
+        <v>0.09784802573137423</v>
       </c>
       <c r="C58">
-        <v>0.005323288163061744</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
+        <v>-0.03424288317135617</v>
+      </c>
+      <c r="D58">
+        <v>0.04152818964359443</v>
+      </c>
+      <c r="E58">
+        <v>0.1645176192664889</v>
+      </c>
+      <c r="F58">
+        <v>0.001786547098153067</v>
+      </c>
+      <c r="G58">
+        <v>0.06862333218062119</v>
+      </c>
+      <c r="H58">
+        <v>0.1737955201160115</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>-0.1155756514203503</v>
+        <v>0.1395012465244898</v>
       </c>
       <c r="C59">
-        <v>0.07691667159104369</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
+        <v>0.08423557374544607</v>
+      </c>
+      <c r="D59">
+        <v>-0.3603145978145152</v>
+      </c>
+      <c r="E59">
+        <v>0.03066353761877402</v>
+      </c>
+      <c r="F59">
+        <v>-0.01370233060083172</v>
+      </c>
+      <c r="G59">
+        <v>0.04489745376984669</v>
+      </c>
+      <c r="H59">
+        <v>-0.00274423014775167</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>-0.201458347989484</v>
+        <v>0.2304986458604574</v>
       </c>
       <c r="C60">
-        <v>0.1047683459004943</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
+        <v>0.06757079216393773</v>
+      </c>
+      <c r="D60">
+        <v>0.03812954369916395</v>
+      </c>
+      <c r="E60">
+        <v>-0.09719070356364233</v>
+      </c>
+      <c r="F60">
+        <v>-0.06480047958481852</v>
+      </c>
+      <c r="G60">
+        <v>-0.009084888213414277</v>
+      </c>
+      <c r="H60">
+        <v>0.1773972803832722</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>-0.08007130532550158</v>
+        <v>0.08825134519930611</v>
       </c>
       <c r="C61">
-        <v>0.05191117396932993</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
+        <v>0.0349817332767476</v>
+      </c>
+      <c r="D61">
+        <v>0.04423233152122166</v>
+      </c>
+      <c r="E61">
+        <v>-0.000483917623211666</v>
+      </c>
+      <c r="F61">
+        <v>-0.003850600267028974</v>
+      </c>
+      <c r="G61">
+        <v>-0.004709115666092388</v>
+      </c>
+      <c r="H61">
+        <v>-0.07314818110662857</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="B62">
-        <v>-0.1292602980251248</v>
+        <v>0.1396744223504816</v>
       </c>
       <c r="C62">
-        <v>0.07085981867639342</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
+        <v>0.04408631074236422</v>
+      </c>
+      <c r="D62">
+        <v>0.02545685969427932</v>
+      </c>
+      <c r="E62">
+        <v>-0.06095090898847701</v>
+      </c>
+      <c r="F62">
+        <v>-0.01348056848402764</v>
+      </c>
+      <c r="G62">
+        <v>-0.03449196266386808</v>
+      </c>
+      <c r="H62">
+        <v>-0.1483447699065357</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>-0.05297381666148733</v>
+        <v>0.05130453110732605</v>
       </c>
       <c r="C63">
-        <v>0.02625139675892225</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3">
+        <v>0.01314089328861641</v>
+      </c>
+      <c r="D63">
+        <v>0.02005002303180514</v>
+      </c>
+      <c r="E63">
+        <v>0.05386476844029665</v>
+      </c>
+      <c r="F63">
+        <v>0.007534640891753061</v>
+      </c>
+      <c r="G63">
+        <v>-0.03663447680226164</v>
+      </c>
+      <c r="H63">
+        <v>-0.06348104536789501</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>-0.1087270953229355</v>
+        <v>0.1104018083785865</v>
       </c>
       <c r="C64">
-        <v>0.02856068988091287</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3">
+        <v>0.004806070628520552</v>
+      </c>
+      <c r="D64">
+        <v>0.04160508684179354</v>
+      </c>
+      <c r="E64">
+        <v>0.04358653617347075</v>
+      </c>
+      <c r="F64">
+        <v>-0.04792498564615062</v>
+      </c>
+      <c r="G64">
+        <v>-0.05025958088423278</v>
+      </c>
+      <c r="H64">
+        <v>-0.06072766442821308</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>-0.119792532208575</v>
+        <v>0.1268459145473176</v>
       </c>
       <c r="C65">
-        <v>0.06069872144282452</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3">
+        <v>0.03768145096738282</v>
+      </c>
+      <c r="D65">
+        <v>0.00198629787247967</v>
+      </c>
+      <c r="E65">
+        <v>0.008671779949294092</v>
+      </c>
+      <c r="F65">
+        <v>-0.06748139838891236</v>
+      </c>
+      <c r="G65">
+        <v>-0.04911793584612886</v>
+      </c>
+      <c r="H65">
+        <v>0.09967514720521299</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>-0.1444555188093381</v>
+        <v>0.1558543498058448</v>
       </c>
       <c r="C66">
-        <v>0.07849935171132445</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3">
+        <v>0.04519056155895632</v>
+      </c>
+      <c r="D66">
+        <v>0.1004986604881938</v>
+      </c>
+      <c r="E66">
+        <v>-0.0290558605508242</v>
+      </c>
+      <c r="F66">
+        <v>-0.01879696755724359</v>
+      </c>
+      <c r="G66">
+        <v>-0.05253104200000486</v>
+      </c>
+      <c r="H66">
+        <v>-0.1533979940249063</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>-0.07381367215538616</v>
+        <v>0.08327002191117504</v>
       </c>
       <c r="C67">
-        <v>0.01612830849679332</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3">
+        <v>0.00402874737104421</v>
+      </c>
+      <c r="D67">
+        <v>0.03068630988993129</v>
+      </c>
+      <c r="E67">
+        <v>0.02860281576185887</v>
+      </c>
+      <c r="F67">
+        <v>-0.009062676863674467</v>
+      </c>
+      <c r="G67">
+        <v>0.005587827991547672</v>
+      </c>
+      <c r="H67">
+        <v>-0.02776037237500107</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>-0.05951869705679105</v>
+        <v>0.06072133125151376</v>
       </c>
       <c r="C68">
-        <v>0.04981667085794667</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
+        <v>0.05557545072673598</v>
+      </c>
+      <c r="D68">
+        <v>-0.2684364759966484</v>
+      </c>
+      <c r="E68">
+        <v>0.04064791083079348</v>
+      </c>
+      <c r="F68">
+        <v>-0.01520944093185787</v>
+      </c>
+      <c r="G68">
+        <v>0.01642226170629442</v>
+      </c>
+      <c r="H68">
+        <v>-0.009583456912412166</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>-0.05200614700888622</v>
+        <v>0.05247750793109631</v>
       </c>
       <c r="C69">
-        <v>0.01969743104332469</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3">
+        <v>0.005419365586678032</v>
+      </c>
+      <c r="D69">
+        <v>0.01778742333631071</v>
+      </c>
+      <c r="E69">
+        <v>0.02705683597555887</v>
+      </c>
+      <c r="F69">
+        <v>0.007321129145328439</v>
+      </c>
+      <c r="G69">
+        <v>0.01145630425161491</v>
+      </c>
+      <c r="H69">
+        <v>-0.04983728687206605</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B70">
-        <v>-0.005132988040867258</v>
+        <v>0.02650273391628498</v>
       </c>
       <c r="C70">
-        <v>-0.004539702412171722</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
+        <v>0.0004800887107544497</v>
+      </c>
+      <c r="D70">
+        <v>0.0008047566606630618</v>
+      </c>
+      <c r="E70">
+        <v>-0.02653085575846839</v>
+      </c>
+      <c r="F70">
+        <v>-0.03095860019243647</v>
+      </c>
+      <c r="G70">
+        <v>0.02407466446845294</v>
+      </c>
+      <c r="H70">
+        <v>0.04852932786025907</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>-0.06093167097495188</v>
+        <v>0.06392276691083836</v>
       </c>
       <c r="C71">
-        <v>0.04936531090889571</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3">
+        <v>0.05792862016323187</v>
+      </c>
+      <c r="D71">
+        <v>-0.2958223643586053</v>
+      </c>
+      <c r="E71">
+        <v>0.03483292567104698</v>
+      </c>
+      <c r="F71">
+        <v>-0.04477395464918224</v>
+      </c>
+      <c r="G71">
+        <v>0.003673450422657493</v>
+      </c>
+      <c r="H71">
+        <v>-0.01815019254736944</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>-0.1391464955441749</v>
+        <v>0.1496984019072179</v>
       </c>
       <c r="C72">
-        <v>0.06565446110175256</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3">
+        <v>0.03732178121369677</v>
+      </c>
+      <c r="D72">
+        <v>-0.0129002306987971</v>
+      </c>
+      <c r="E72">
+        <v>-0.1156408408856524</v>
+      </c>
+      <c r="F72">
+        <v>0.1547422085168779</v>
+      </c>
+      <c r="G72">
+        <v>-0.117151644224188</v>
+      </c>
+      <c r="H72">
+        <v>-0.01330984500375469</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>-0.2662548626776246</v>
+        <v>0.284237258942606</v>
       </c>
       <c r="C73">
-        <v>0.1140028558322918</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3">
+        <v>0.04962754496807504</v>
+      </c>
+      <c r="D73">
+        <v>0.09816650205596603</v>
+      </c>
+      <c r="E73">
+        <v>-0.2276636141390853</v>
+      </c>
+      <c r="F73">
+        <v>-0.1207598299376614</v>
+      </c>
+      <c r="G73">
+        <v>0.2200215733171649</v>
+      </c>
+      <c r="H73">
+        <v>0.5053166569420561</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>-0.07936072465214339</v>
+        <v>0.09165554700522706</v>
       </c>
       <c r="C74">
-        <v>0.07874882064407643</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3">
+        <v>0.05923486448493744</v>
+      </c>
+      <c r="D74">
+        <v>0.03100809272316014</v>
+      </c>
+      <c r="E74">
+        <v>-0.004209522668013662</v>
+      </c>
+      <c r="F74">
+        <v>0.01043077968798808</v>
+      </c>
+      <c r="G74">
+        <v>0.02937233321063221</v>
+      </c>
+      <c r="H74">
+        <v>-0.1172096527279336</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>-0.09574333218266916</v>
+        <v>0.1014159827531711</v>
       </c>
       <c r="C75">
-        <v>0.05423630873598662</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3">
+        <v>0.02743242889907448</v>
+      </c>
+      <c r="D75">
+        <v>0.01252871100236843</v>
+      </c>
+      <c r="E75">
+        <v>0.01043809296415221</v>
+      </c>
+      <c r="F75">
+        <v>-0.03123452256511077</v>
+      </c>
+      <c r="G75">
+        <v>0.009199495188877665</v>
+      </c>
+      <c r="H75">
+        <v>-0.1146645457810661</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>-0.1286255667606701</v>
+        <v>0.1396443381329376</v>
       </c>
       <c r="C76">
-        <v>0.08573840639650049</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3">
+        <v>0.0567050167495159</v>
+      </c>
+      <c r="D76">
+        <v>0.05177579304882304</v>
+      </c>
+      <c r="E76">
+        <v>0.03194219430933653</v>
+      </c>
+      <c r="F76">
+        <v>-0.04702704303825045</v>
+      </c>
+      <c r="G76">
+        <v>-0.006938969278040694</v>
+      </c>
+      <c r="H76">
+        <v>-0.1489508905722918</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>-0.1193396511407074</v>
+        <v>0.1132026556547725</v>
       </c>
       <c r="C77">
-        <v>0.02725887502527598</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3">
+        <v>-0.002002004679660231</v>
+      </c>
+      <c r="D77">
+        <v>0.01284251553083991</v>
+      </c>
+      <c r="E77">
+        <v>0.003130557270296099</v>
+      </c>
+      <c r="F77">
+        <v>-0.1696371837893147</v>
+      </c>
+      <c r="G77">
+        <v>-0.8686002131470498</v>
+      </c>
+      <c r="H77">
+        <v>0.2433914209375194</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>-0.09485055599067302</v>
+        <v>0.1330657145369368</v>
       </c>
       <c r="C78">
-        <v>0.04113030254023645</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3">
+        <v>0.03320527081538058</v>
+      </c>
+      <c r="D78">
+        <v>0.09685279709600778</v>
+      </c>
+      <c r="E78">
+        <v>0.06018869275187566</v>
+      </c>
+      <c r="F78">
+        <v>-0.01983866823142896</v>
+      </c>
+      <c r="G78">
+        <v>-0.05035580039733458</v>
+      </c>
+      <c r="H78">
+        <v>0.05552692493814031</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B79">
-        <v>-0.1468638103916404</v>
+        <v>0.152389889334825</v>
       </c>
       <c r="C79">
-        <v>0.0841141202003331</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3">
+        <v>0.04717537919857948</v>
+      </c>
+      <c r="D79">
+        <v>0.02708067971342969</v>
+      </c>
+      <c r="E79">
+        <v>-0.01128984084918259</v>
+      </c>
+      <c r="F79">
+        <v>-0.0147555996570891</v>
+      </c>
+      <c r="G79">
+        <v>0.01687064581042453</v>
+      </c>
+      <c r="H79">
+        <v>-0.1642488774282541</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>-0.04258036217584782</v>
+        <v>0.04199589852765397</v>
       </c>
       <c r="C80">
-        <v>0.01544740306142072</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3">
+        <v>0.005632563077586748</v>
+      </c>
+      <c r="D80">
+        <v>0.02305404984834727</v>
+      </c>
+      <c r="E80">
+        <v>-0.0040321495826502</v>
+      </c>
+      <c r="F80">
+        <v>0.01098020314946356</v>
+      </c>
+      <c r="G80">
+        <v>0.03160220662687927</v>
+      </c>
+      <c r="H80">
+        <v>-0.04961772765200946</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>-0.1185752388084342</v>
+        <v>0.122237751876189</v>
       </c>
       <c r="C81">
-        <v>0.06730591424184973</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3">
+        <v>0.03709393302496079</v>
+      </c>
+      <c r="D81">
+        <v>0.02612486484849155</v>
+      </c>
+      <c r="E81">
+        <v>0.0301912999319072</v>
+      </c>
+      <c r="F81">
+        <v>-0.01031687954463639</v>
+      </c>
+      <c r="G81">
+        <v>0.0314657662293775</v>
+      </c>
+      <c r="H81">
+        <v>-0.1645969564831725</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="B82">
-        <v>-0.1272936246627818</v>
+        <v>0.1300715142590049</v>
       </c>
       <c r="C82">
-        <v>0.08008264348323035</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3">
+        <v>0.04871295423502007</v>
+      </c>
+      <c r="D82">
+        <v>0.02996135544686019</v>
+      </c>
+      <c r="E82">
+        <v>-0.01236375757777578</v>
+      </c>
+      <c r="F82">
+        <v>-0.05520221374764157</v>
+      </c>
+      <c r="G82">
+        <v>0.02905874620873375</v>
+      </c>
+      <c r="H82">
+        <v>-0.1832687736763357</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>-0.07934026367183634</v>
+        <v>0.08737827659180025</v>
       </c>
       <c r="C83">
-        <v>-0.001997806276519672</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3">
+        <v>-0.01944649298525371</v>
+      </c>
+      <c r="D83">
+        <v>0.04256309255337357</v>
+      </c>
+      <c r="E83">
+        <v>0.02256443155571889</v>
+      </c>
+      <c r="F83">
+        <v>-0.05348653222360424</v>
+      </c>
+      <c r="G83">
+        <v>0.09588558046335674</v>
+      </c>
+      <c r="H83">
+        <v>0.05589122443037575</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B84">
-        <v>-0.0294134600834648</v>
+        <v>0.03935408021185009</v>
       </c>
       <c r="C84">
-        <v>0.02577422116907488</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3">
+        <v>0.0202737013636984</v>
+      </c>
+      <c r="D84">
+        <v>0.02976111204389807</v>
+      </c>
+      <c r="E84">
+        <v>0.02591130450587898</v>
+      </c>
+      <c r="F84">
+        <v>0.05311349430212844</v>
+      </c>
+      <c r="G84">
+        <v>0.05341103965265093</v>
+      </c>
+      <c r="H84">
+        <v>-0.02803039343946816</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>-0.1180248500784528</v>
+        <v>0.119164706250912</v>
       </c>
       <c r="C85">
-        <v>0.06176357155059369</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3">
+        <v>0.03072794868542876</v>
+      </c>
+      <c r="D85">
+        <v>0.02613903089627871</v>
+      </c>
+      <c r="E85">
+        <v>0.02109562682811947</v>
+      </c>
+      <c r="F85">
+        <v>-0.04204709477676586</v>
+      </c>
+      <c r="G85">
+        <v>0.008108828220290102</v>
+      </c>
+      <c r="H85">
+        <v>-0.1419223123308361</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>-0.05004131414265098</v>
+        <v>0.05694364343854365</v>
       </c>
       <c r="C86">
-        <v>0.03056599790540555</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3">
+        <v>0.01919511615433096</v>
+      </c>
+      <c r="D86">
+        <v>0.0242227722073321</v>
+      </c>
+      <c r="E86">
+        <v>0.06089559042124389</v>
+      </c>
+      <c r="F86">
+        <v>-0.02760264982167079</v>
+      </c>
+      <c r="G86">
+        <v>0.006889709283433817</v>
+      </c>
+      <c r="H86">
+        <v>-0.01080970734771025</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>-0.1216903936986039</v>
+        <v>0.1225911643467916</v>
       </c>
       <c r="C87">
-        <v>0.07065367741675159</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3">
+        <v>0.03383863981955906</v>
+      </c>
+      <c r="D87">
+        <v>0.07767485874565613</v>
+      </c>
+      <c r="E87">
+        <v>0.01778082297465628</v>
+      </c>
+      <c r="F87">
+        <v>0.00604861512303687</v>
+      </c>
+      <c r="G87">
+        <v>-0.1091650532847552</v>
+      </c>
+      <c r="H87">
+        <v>0.02409580477135849</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>-0.05317920211088706</v>
+        <v>0.05997402381372351</v>
       </c>
       <c r="C88">
-        <v>0.02996510591341735</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3">
+        <v>0.01870820408171989</v>
+      </c>
+      <c r="D88">
+        <v>0.02807270551667808</v>
+      </c>
+      <c r="E88">
+        <v>0.02347566750267543</v>
+      </c>
+      <c r="F88">
+        <v>-0.008511514823445509</v>
+      </c>
+      <c r="G88">
+        <v>-0.01736257925285497</v>
+      </c>
+      <c r="H88">
+        <v>-0.06046996718722796</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>-0.08231058889872178</v>
+        <v>0.09570874201629991</v>
       </c>
       <c r="C89">
-        <v>0.06474802872193079</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3">
+        <v>0.07622773010505865</v>
+      </c>
+      <c r="D89">
+        <v>-0.3393653583599452</v>
+      </c>
+      <c r="E89">
+        <v>0.0703832536442745</v>
+      </c>
+      <c r="F89">
+        <v>-0.079777968261923</v>
+      </c>
+      <c r="G89">
+        <v>0.02260067879152335</v>
+      </c>
+      <c r="H89">
+        <v>-0.01152011311883156</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>-0.07292951962295166</v>
+        <v>0.08171448199594385</v>
       </c>
       <c r="C90">
-        <v>0.05807905588871431</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3">
+        <v>0.06644923394649552</v>
+      </c>
+      <c r="D90">
+        <v>-0.3089852760428557</v>
+      </c>
+      <c r="E90">
+        <v>0.06515410589139919</v>
+      </c>
+      <c r="F90">
+        <v>-0.002729185510747683</v>
+      </c>
+      <c r="G90">
+        <v>0.006048926406004219</v>
+      </c>
+      <c r="H90">
+        <v>-0.008162413096626001</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>-0.08423796395620735</v>
+        <v>0.08934927570088694</v>
       </c>
       <c r="C91">
-        <v>0.05527917521326964</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3">
+        <v>0.03346027172137131</v>
+      </c>
+      <c r="D91">
+        <v>0.03014287822515627</v>
+      </c>
+      <c r="E91">
+        <v>0.01424846679234565</v>
+      </c>
+      <c r="F91">
+        <v>-0.00408361065940822</v>
+      </c>
+      <c r="G91">
+        <v>0.04616577503861023</v>
+      </c>
+      <c r="H91">
+        <v>-0.07400246255508616</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>-0.07875016930763241</v>
+        <v>0.08540251021877418</v>
       </c>
       <c r="C92">
-        <v>0.07550815431069229</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3">
+        <v>0.08235242382529864</v>
+      </c>
+      <c r="D92">
+        <v>-0.3432450127386156</v>
+      </c>
+      <c r="E92">
+        <v>0.04879744710284538</v>
+      </c>
+      <c r="F92">
+        <v>-0.03369294340309428</v>
+      </c>
+      <c r="G92">
+        <v>-0.003887398315750598</v>
+      </c>
+      <c r="H92">
+        <v>-0.02334697816008474</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>-0.06538623012428421</v>
+        <v>0.07977294025798366</v>
       </c>
       <c r="C93">
-        <v>0.06249767199630607</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3">
+        <v>0.07615324895128552</v>
+      </c>
+      <c r="D93">
+        <v>-0.3070935478275197</v>
+      </c>
+      <c r="E93">
+        <v>0.03795201561260023</v>
+      </c>
+      <c r="F93">
+        <v>-0.04249424640817478</v>
+      </c>
+      <c r="G93">
+        <v>-0.006235216545488265</v>
+      </c>
+      <c r="H93">
+        <v>0.01228985387365002</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>-0.13388333280639</v>
+        <v>0.1283790864147168</v>
       </c>
       <c r="C94">
-        <v>0.06002287701102045</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3">
+        <v>0.021582902573554</v>
+      </c>
+      <c r="D94">
+        <v>0.04687025329097922</v>
+      </c>
+      <c r="E94">
+        <v>-0.004146752587826297</v>
+      </c>
+      <c r="F94">
+        <v>-0.0203642154029934</v>
+      </c>
+      <c r="G94">
+        <v>0.03780791978610026</v>
+      </c>
+      <c r="H94">
+        <v>-0.1067240808235182</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>-0.1176382585497802</v>
+        <v>0.1282198173860797</v>
       </c>
       <c r="C95">
-        <v>0.03846729035941061</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3">
+        <v>0.00979286528943402</v>
+      </c>
+      <c r="D95">
+        <v>0.05897851897789631</v>
+      </c>
+      <c r="E95">
+        <v>0.01127853535362914</v>
+      </c>
+      <c r="F95">
+        <v>-0.05039530646720531</v>
+      </c>
+      <c r="G95">
+        <v>0.01923691750630388</v>
+      </c>
+      <c r="H95">
+        <v>0.0150258211504712</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -1744,43 +3184,103 @@
       <c r="C96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:3">
+      <c r="D96">
+        <v>0</v>
+      </c>
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="B97">
-        <v>-0.200415355382742</v>
+        <v>0.2102031470193615</v>
       </c>
       <c r="C97">
-        <v>0.04565386157443106</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3">
+        <v>0.007323053743888489</v>
+      </c>
+      <c r="D97">
+        <v>-0.08516701946253419</v>
+      </c>
+      <c r="E97">
+        <v>-0.2811602292818378</v>
+      </c>
+      <c r="F97">
+        <v>0.8733722907856397</v>
+      </c>
+      <c r="G97">
+        <v>-0.1145710805989168</v>
+      </c>
+      <c r="H97">
+        <v>0.009754255623186164</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>-0.2446219858991465</v>
+        <v>0.2721753490884005</v>
       </c>
       <c r="C98">
-        <v>0.08539669598164198</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3">
+        <v>0.03666465944133536</v>
+      </c>
+      <c r="D98">
+        <v>0.06626490562655223</v>
+      </c>
+      <c r="E98">
+        <v>-0.1595094406935853</v>
+      </c>
+      <c r="F98">
+        <v>-0.06418076178762591</v>
+      </c>
+      <c r="G98">
+        <v>0.2870409477150269</v>
+      </c>
+      <c r="H98">
+        <v>0.2058372004969593</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="B99">
-        <v>-0.463725882118136</v>
+        <v>0.2851281872661759</v>
       </c>
       <c r="C99">
-        <v>-0.8714279213203582</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3">
+        <v>-0.9369524208394224</v>
+      </c>
+      <c r="D99">
+        <v>-0.12239297443459</v>
+      </c>
+      <c r="E99">
+        <v>0.06551388225822079</v>
+      </c>
+      <c r="F99">
+        <v>-0.0407449159671041</v>
+      </c>
+      <c r="G99">
+        <v>0.01174786873543843</v>
+      </c>
+      <c r="H99">
+        <v>-0.06072501395470022</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -1788,21 +3288,51 @@
       <c r="C100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:3">
+      <c r="D100">
+        <v>0</v>
+      </c>
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>-0.04091167136422198</v>
+        <v>0.04855036333559867</v>
       </c>
       <c r="C101">
-        <v>0.03169141627205843</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3">
+        <v>0.02504551233715714</v>
+      </c>
+      <c r="D101">
+        <v>0.005501529531651606</v>
+      </c>
+      <c r="E101">
+        <v>0.05536477449547861</v>
+      </c>
+      <c r="F101">
+        <v>-0.001449822496358378</v>
+      </c>
+      <c r="G101">
+        <v>-0.00235892617516203</v>
+      </c>
+      <c r="H101">
+        <v>-0.08282885739734024</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -1810,10 +3340,25 @@
       <c r="C102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:3">
+      <c r="D102">
+        <v>0</v>
+      </c>
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+      <c r="G102">
+        <v>0</v>
+      </c>
+      <c r="H102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -1821,15 +3366,45 @@
       <c r="C103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:3">
+      <c r="D103">
+        <v>0</v>
+      </c>
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="B104">
         <v>0</v>
       </c>
       <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
         <v>0</v>
       </c>
     </row>
